--- a/test_speeches/predictions/Coding_Differneces_4_AI.xlsx
+++ b/test_speeches/predictions/Coding_Differneces_4_AI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K298"/>
+  <dimension ref="A1:L299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,64 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sentence</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Simile</t>
+          <t>label</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Metaphor/Similie</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Rhetorical questions</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stories / anecdotes</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Stories/Anecdotes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Contrasts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lists / Repetition </t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Moral conviction</t>
+          <t>Lists</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment of the collective</t>
+          <t>Repetition</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ambitious goals / Setting high expectations</t>
+          <t>Moral_conviction</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Confidence in goals</t>
+          <t>Sentiment_of_the_collective</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Setting_high_expectations</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Thank you.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>0</v>
       </c>
@@ -519,16 +520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mr. Lieutenant Governor, Mr. Speaker, Madam Pro Tem, honorable legislators, distinguished guests, my friends, the first Manny, my daughter Erin, my granddaughter Avery, Avery’s other grandmother Sandy Reiger, my brother Gregory Lujan, everybody who isn’t watching the impeachment trial on C-SPAN, and my fellow New Mexicans:</t>
+          <t>Thank you.</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -544,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -556,26 +560,29 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This past year I heard from many members of our extended New Mexico family.</t>
+          <t>Mr. Lieutenant Governor, Mr. Speaker, Madam Pro Tem, honorable legislators, distinguished guests, my friends, the first Manny, my daughter Erin, my granddaughter Avery, Avery’s other grandmother Sandy Reiger, my brother Gregory Lujan, everybody who isn’t watching the impeachment trial on C-SPAN, and my fellow New Mexicans:</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -584,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -593,20 +600,23 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Students wrote letters.</t>
+          <t>This past year I heard from many members of our extended New Mexico family.</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -630,16 +640,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parents came to my office.</t>
+          <t>Students wrote letters.</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -667,16 +680,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>I met advocates and entrepreneurs as we traveled across the state – from Carlsbad and Silver City to the Navajo Nation and beyond.</t>
+          <t>Parents came to my office.</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -692,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -704,20 +720,23 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>New faces and old friends.</t>
+          <t>I met advocates and entrepreneurs as we traveled across the state – from Carlsbad and Silver City to the Navajo Nation and beyond.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -732,29 +751,32 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Police officers, veterans, educators and business-owners.</t>
+          <t>New faces and old friends.</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -766,32 +788,35 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Over and over, I heard two things.</t>
+          <t>Police officers, veterans, educators and business-owners.</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -806,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -815,16 +840,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>One: Do you really drink that much coffee.</t>
+          <t>Over and over, I heard two things.</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -852,16 +880,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>No comment – but also, yes.</t>
+          <t>One: Do you really drink that much coffee.</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -889,16 +920,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Second, time and again, New Mexicans told me: Keep going.</t>
+          <t>No comment – but also, yes.</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -926,20 +960,23 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>The state of our state is dynamic, ready for more, on the cusp of steady and sustainable progress.</t>
+          <t>Second, time and again, New Mexicans told me: Keep going.</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -951,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -963,57 +1000,63 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>We are stronger today than we were one year ago – no question.</t>
+          <t>The state of our state is dynamic, ready for more, on the cusp of steady and sustainable progress.</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fifteen-thousand new jobs in New Mexico since the day I took office, the best year for job growth in the state since 2005.</t>
+          <t>We are stronger today than we were one year ago – no question.</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1025,32 +1068,35 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Our economy is booming in every direction: Long-time New Mexico businesses are boosting their investments in our state.</t>
+          <t>Fifteen-thousand new jobs in New Mexico since the day I took office, the best year for job growth in the state since 2005.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1065,25 +1111,28 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Exciting new companies are putting down roots here for the first time, choosing to be in the Land of Enchantment.</t>
+          <t>Our economy is booming in every direction: Long-time New Mexico businesses are boosting their investments in our state.</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1105,63 +1154,69 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>We are top ten nationally for inbound moves, a complete reversal from only a few years ago, when families were leaving our state – and one third of the people moving to New Mexico are coming here for jobs.</t>
+          <t>Exciting new companies are putting down roots here for the first time, choosing to be in the Land of Enchantment.</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Since the day I took office, we are #8 nationally for job growth.</t>
+          <t>We are top ten nationally for inbound moves, a complete reversal from only a few years ago, when families were leaving our state – and one third of the people moving to New Mexico are coming here for jobs.</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1179,26 +1234,29 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>I like the sound of top 10, and I like the sound of this even better: Our private-sector job growth is beating Nevada, California and Colorado.</t>
+          <t>Since the day I took office, we are #8 nationally for job growth.</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1210,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1222,20 +1280,23 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>As I said a hundred times this year, in every community I visited across our state: New Mexico is the place to be, and if you’re not here, you better get here fast.</t>
+          <t>I like the sound of top 10, and I like the sound of this even better: Our private-sector job growth is beating Nevada, California and Colorado.</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1250,29 +1311,32 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>At the close of Year One, at the outset of Year Two, state government is stronger and gathering strength.</t>
+          <t>As I said a hundred times this year, in every community I visited across our state: New Mexico is the place to be, and if you’re not here, you better get here fast.</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1284,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1296,20 +1360,23 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Our December statewide rapid-hire events drew 3,700 job-seekers – that’s 3,700 New Mexicans eager for work, eager to serve their communities and neighbors right now.</t>
+          <t>At the close of Year One, at the outset of Year Two, state government is stronger and gathering strength.</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1321,32 +1388,35 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Together we delivered meaningful raises for New Mexico educators passionate about their students.</t>
+          <t>Our December statewide rapid-hire events drew 3,700 job-seekers – that’s 3,700 New Mexicans eager for work, eager to serve their communities and neighbors right now.</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1361,29 +1431,32 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>We launched pivotal transformations in environmental leadership and in long-overdue infrastructure.</t>
+          <t>Together we delivered meaningful raises for New Mexico educators passionate about their students.</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1401,26 +1474,29 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Our Children, Youth and Families Department this year cut the average wait time on its Child Abuse Hotline from an unconscionable hour-plus to less than five minutes.</t>
+          <t>We launched pivotal transformations in environmental leadership and in long-overdue infrastructure.</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1432,32 +1508,35 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Our Human Services Department settled with each of the behavioral health providers ejected from the state by the Martinez administration, a monumental step toward the robust and rebuilt behavioral health system New Mexico urgently needs.</t>
+          <t>Our Children, Youth and Families Department this year cut the average wait time on its Child Abuse Hotline from an unconscionable hour-plus to less than five minutes.</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1472,29 +1551,32 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Our Workforce Solutions Department has gone after wage theft, standing up for workers against bad actors who are violating the law and taking advantage of them.</t>
+          <t>Our Human Services Department settled with each of the behavioral health providers ejected from the state by the Martinez administration, a monumental step toward the robust and rebuilt behavioral health system New Mexico urgently needs.</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1512,26 +1594,29 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Our Corrections Department successfully took over management of the private prison in Clayton, overseeing a safe and seamless transition into better administration.</t>
+          <t>Our Workforce Solutions Department has gone after wage theft, standing up for workers against bad actors who are violating the law and taking advantage of them.</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1549,26 +1634,29 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>We settled the Jackson and Duran litigations, ending cases that have lasted decades and cost the state tens of millions of dollars.</t>
+          <t>Our Corrections Department successfully took over management of the private prison in Clayton, overseeing a safe and seamless transition into better administration.</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1586,22 +1674,25 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>We took the initiative on building up our state’s reserves for a future rainy day.</t>
+          <t>We settled the Jackson and Duran litigations, ending cases that have lasted decades and cost the state tens of millions of dollars.</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1620,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1629,23 +1720,26 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>We made sure we have an equitable framework for reforming our state pension system in a way that protects New Mexico taxpayers and respects retirees, both current and future.</t>
+          <t>We took the initiative on building up our state’s reserves for a future rainy day.</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1657,25 +1751,28 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>We boosted common-sense oversight of polluters; and we put New Mexico on a direct path to being the nation’s clean energy leader, ensuring our land, air and water – our inheritance as residents of this incredible state – are passed on to future generations.</t>
+          <t>We made sure we have an equitable framework for reforming our state pension system in a way that protects New Mexico taxpayers and respects retirees, both current and future.</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1691,28 +1788,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>We brought industry and environmental leaders together, and we are moving forward on creating nation-leading rules that will curb methane pollution, create jobs and deliver more dollars into New Mexico classrooms.</t>
+          <t>We boosted common-sense oversight of polluters; and we put New Mexico on a direct path to being the nation’s clean energy leader, ensuring our land, air and water – our inheritance as residents of this incredible state – are passed on to future generations.</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1728,32 +1828,35 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>We took on the Trump administration when they abandoned border communities, when they tried to gain access to our workforce data so they could deport working parents and tear families apart.</t>
+          <t>We brought industry and environmental leaders together, and we are moving forward on creating nation-leading rules that will curb methane pollution, create jobs and deliver more dollars into New Mexico classrooms.</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1771,26 +1874,29 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>With your help, we will keep up those efforts, those good fights – and we will keep investing for a bright tomorrow while delivering solutions to the urgent needs of today.</t>
+          <t>We took on the Trump administration when they abandoned border communities, when they tried to gain access to our workforce data so they could deport working parents and tear families apart.</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -1802,32 +1908,35 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>We are fixing what was left broken and addressing urgent needs and turning the corner into the bright future of our incredible state – all at once.</t>
+          <t>With your help, we will keep up those efforts, those good fights – and we will keep investing for a bright tomorrow while delivering solutions to the urgent needs of today.</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1839,32 +1948,35 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Year One: I’d call it a very, very good start.</t>
+          <t>We are fixing what was left broken and addressing urgent needs and turning the corner into the bright future of our incredible state – all at once.</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1876,32 +1988,35 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Thank you, honorable legislators, even Debbie Armstrong – thank you all for your support and leadership in helping us capitalize on the incredible opportunity of this moment.</t>
+          <t>Year One: I’d call it a very, very good start.</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1913,32 +2028,35 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>But, as you know, we’ve still got a lot of work to do.</t>
+          <t>Thank you, honorable legislators, even Debbie Armstrong – thank you all for your support and leadership in helping us capitalize on the incredible opportunity of this moment.</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1953,25 +2071,28 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>For one thing: We still haven’t shortened all these podiums, they’re too tall.</t>
+          <t>But, as you know, we’ve still got a lot of work to do.</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1984,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1999,20 +2120,23 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>That was the first thing I said we had to do.</t>
+          <t>For one thing: We still haven’t shortened all these podiums, they’re too tall.</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2024,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2036,16 +2160,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>In all seriousness: We accomplished so very much in one year, and yet the economic growth we’ve seen has not touched families in every part of the state.</t>
+          <t>That was the first thing I said we had to do.</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2058,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2073,20 +2200,23 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>We have not yet completed the diversification and expansion efforts we must undertake to ensure New Mexico’s prosperity is durable and meaningful.</t>
+          <t>In all seriousness: We accomplished so very much in one year, and yet the economic growth we’ve seen has not touched families in every part of the state.</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -2098,28 +2228,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>The educational transformation that’s begun to take shape is still in the first few innings.</t>
+          <t>We have not yet completed the diversification and expansion efforts we must undertake to ensure New Mexico’s prosperity is durable and meaningful.</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2141,26 +2274,29 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>So, no, I did not hear New Mexicans telling me, “great, job done – I heard them say, “great, keep going.</t>
+          <t>The educational transformation that’s begun to take shape is still in the first few innings.</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -2169,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2178,26 +2314,29 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
       </c>
       <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>And we are building something substantial and sweeping and powerful – for the generations to come and for New Mexicans right now.</t>
+          <t>So, no, I did not hear New Mexicans telling me, “great, job done – I heard them say, “great, keep going.</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -2209,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2221,20 +2360,23 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>We are investing for tomorrow and delivering today.</t>
+          <t>And we are building something substantial and sweeping and powerful – for the generations to come and for New Mexicans right now.</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -2243,31 +2385,34 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>We must continue to do both – aggressively, strategically, with fiscal responsibility top of mind.</t>
+          <t>We are investing for tomorrow and delivering today.</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2283,32 +2428,35 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>In equal measure, I am proud of the distance we have covered, eager for the chance to do more right now, and perfectly aware of the climb we still have to make.</t>
+          <t>We must continue to do both – aggressively, strategically, with fiscal responsibility top of mind.</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -2326,26 +2474,29 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>As we open this 30-day session, I challenge you to think beyond the 30 days.</t>
+          <t>In equal measure, I am proud of the distance we have covered, eager for the chance to do more right now, and perfectly aware of the climb we still have to make.</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2357,32 +2508,35 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Think beyond even this year.</t>
+          <t>As we open this 30-day session, I challenge you to think beyond the 30 days.</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -2403,19 +2557,22 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>We stand together in the sunrise of a new decade.</t>
+          <t>Think beyond even this year.</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2443,23 +2600,26 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>What we do here in this session, in this coming year, will set the course for what comes over the horizon in 2030 and beyond.</t>
+          <t>We stand together in the sunrise of a new decade.</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -2474,22 +2634,25 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>The progress begins right here in this room and on the other side of the building – the accomplishments of lawmakers present and past, including those beloved friends and colleagues we lost this year, Representative Bill Pratt, Senator Carlos Cisneros, Senator John Pinto.</t>
+          <t>What we do here in this session, in this coming year, will set the course for what comes over the horizon in 2030 and beyond.</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2505,32 +2668,35 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>It’s important to reflect on their many contributions to our state and what each of them, in their own way, delivered for their constituents and all of New Mexico.</t>
+          <t>The progress begins right here in this room and on the other side of the building – the accomplishments of lawmakers present and past, including those beloved friends and colleagues we lost this year, Representative Bill Pratt, Senator Carlos Cisneros, Senator John Pinto.</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -2548,26 +2714,29 @@
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>If we can take a quiet moment to remember them.</t>
+          <t>It’s important to reflect on their many contributions to our state and what each of them, in their own way, delivered for their constituents and all of New Mexico.</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -2591,16 +2760,19 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Thank you.</t>
+          <t>If we can take a quiet moment to remember them.</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2628,23 +2800,26 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Over this next year and in this coming decade, how will we work together to make New Mexico the state of success.</t>
+          <t>Thank you.</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -2665,57 +2840,63 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>The power to answer the call forcefully is in our hands, in our willingness and capacity to be relentless and bold, right now.</t>
+          <t>Over this next year and in this coming decade, how will we work together to make New Mexico the state of success.</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>We begin where we must: Education.</t>
+          <t>The power to answer the call forcefully is in our hands, in our willingness and capacity to be relentless and bold, right now.</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2730,29 +2911,32 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>It would be inaccurate to say we chose education as our top priority.</t>
+          <t>We begin where we must: Education.</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -2767,29 +2951,32 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transforming our public education ecosystem is no less than a moral mandate, an imperative that found us, this group of legislative leaders who are obligated and, I believe, destined to deliver the single best cradle-to-career educational system in the country.</t>
+          <t>It would be inaccurate to say we chose education as our top priority.</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2801,32 +2988,35 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>I insist, alongside every devoted parent and dedicated advocate in the state, that we get it right, right now.</t>
+          <t>Transforming our public education ecosystem is no less than a moral mandate, an imperative that found us, this group of legislative leaders who are obligated and, I believe, destined to deliver the single best cradle-to-career educational system in the country.</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -2844,26 +3034,29 @@
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>And at the same time I recognize that what we are building requires long-term vision.</t>
+          <t>I insist, alongside every devoted parent and dedicated advocate in the state, that we get it right, right now.</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -2881,22 +3074,25 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>We all must recognize that a genuine transformation, a moonshot, doesn’t occur overnight.</t>
+          <t>And at the same time I recognize that what we are building requires long-term vision.</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2918,26 +3114,29 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>But our goal is and will continue to be meaningful positive outcomes for students and teachers all while the permanent turnaround rounds into shape.</t>
+          <t>We all must recognize that a genuine transformation, a moonshot, doesn’t occur overnight.</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -2949,32 +3148,35 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>So we must continue to build.</t>
+          <t>But our goal is and will continue to be meaningful positive outcomes for students and teachers all while the permanent turnaround rounds into shape.</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -2992,26 +3194,29 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>We’ve got to invest and deliver.</t>
+          <t>So we must continue to build.</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -3023,32 +3228,35 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>We’ve got to pay educators more and we’ve got to hire more educators.</t>
+          <t>We’ve got to invest and deliver.</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -3060,32 +3268,35 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>And we are on our way: In Year One, we cut the statewide teacher vacancy rate by 13 percent – proof positive that the message has been received: After 8 years of neglect and disrespect, New Mexico values and supports its world-class educators once again.</t>
+          <t>We’ve got to pay educators more and we’ve got to hire more educators.</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -3094,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -3103,26 +3314,29 @@
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>And we will keep going in a way that’s sustainable and real.</t>
+          <t>And we are on our way: In Year One, we cut the statewide teacher vacancy rate by 13 percent – proof positive that the message has been received: After 8 years of neglect and disrespect, New Mexico values and supports its world-class educators once again.</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -3134,32 +3348,35 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>We will, together, deliver another raise for educators and school personnel this year, the most significant back-to-back raises educators have received in almost 15 years.</t>
+          <t>And we will keep going in a way that’s sustainable and real.</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -3177,26 +3394,29 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>In our first two years, we will have provided a 10 percent across-the-board raise for our educators – as compared to only 6% total over the eight years before that.</t>
+          <t>We will, together, deliver another raise for educators and school personnel this year, the most significant back-to-back raises educators have received in almost 15 years.</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -3205,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -3214,26 +3434,29 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Once again: Education was not a priority then.</t>
+          <t>In our first two years, we will have provided a 10 percent across-the-board raise for our educators – as compared to only 6% total over the eight years before that.</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -3242,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -3257,20 +3480,23 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>It is now.</t>
+          <t>Once again: Education was not a priority then.</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -3285,25 +3511,28 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
       </c>
       <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>And we will keep going; we will stay the course with new programs that require a sustained focus, like extended learning time and K-5 Plus.</t>
+          <t>It is now.</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3319,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3331,20 +3560,23 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Let’s think about what those programs represent: More meaningful time in the classroom for our at-risk students, more time for them to learn, create and build relationships.</t>
+          <t>And we will keep going; we will stay the course with new programs that require a sustained focus, like extended learning time and K-5 Plus.</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -3356,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
@@ -3365,19 +3597,22 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>And we know there’s a direct line between that and higher achievement.</t>
+          <t>Let’s think about what those programs represent: More meaningful time in the classroom for our at-risk students, more time for them to learn, create and build relationships.</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3399,22 +3634,25 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>With the Public Education Department working alongside districts around the state, we estimate, next year, more than half of New Mexico’s K-12 student body taking part in extended learning programs; we estimate almost 5,000 teachers participating in K-5 Plus – teachers in the top tier taking home almost $70,000 a year.</t>
+          <t>And we know there’s a direct line between that and higher achievement.</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3430,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3442,20 +3680,23 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>And we will, this year, expand our axis of emphasis to include early childhood education and care, comprehensively changing the trajectory for the youngest kids in this state, forever.</t>
+          <t>With the Public Education Department working alongside districts around the state, we estimate, next year, more than half of New Mexico’s K-12 student body taking part in extended learning programs; we estimate almost 5,000 teachers participating in K-5 Plus – teachers in the top tier taking home almost $70,000 a year.</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -3479,20 +3720,23 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Child care, pre-k, home visiting, family nutrition, early intervention services and more – we will connect New Mexico parents with the high-quality services they need to help them both cut costs in their home budgets and provide the best possible head start for their children.</t>
+          <t>And we will, this year, expand our axis of emphasis to include early childhood education and care, comprehensively changing the trajectory for the youngest kids in this state, forever.</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -3504,28 +3748,31 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>With your support, last year, we launched the Early Childhood Education and Care Department, a monument to our belief in what our kids and families can achieve.</t>
+          <t>Child care, pre-k, home visiting, family nutrition, early intervention services and more – we will connect New Mexico parents with the high-quality services they need to help them both cut costs in their home budgets and provide the best possible head start for their children.</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3547,22 +3794,25 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>With that new department, together, we opened the door to a new day for early childhood outcomes in New Mexico.</t>
+          <t>With your support, last year, we launched the Early Childhood Education and Care Department, a monument to our belief in what our kids and families can achieve.</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3581,25 +3831,28 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
       </c>
       <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>We must now walk through that door and invest in learning opportunities and care networks that will make a difference for New Mexico children and families.</t>
+          <t>With that new department, together, we opened the door to a new day for early childhood outcomes in New Mexico.</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3615,32 +3868,35 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>We all want better outcomes for our kids and families – but it seems we sometimes hesitate when it comes time to really provide for their future.</t>
+          <t>We must now walk through that door and invest in learning opportunities and care networks that will make a difference for New Mexico children and families.</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -3649,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -3664,20 +3920,23 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>We have the opportunity this year to do that.</t>
+          <t>We all want better outcomes for our kids and families – but it seems we sometimes hesitate when it comes time to really provide for their future.</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -3689,32 +3948,35 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>With the Early Childhood Trust Fund, we can establish a positive, dynamic and self-fulfilling cycle of improved outcomes for our children and families.</t>
+          <t>We have the opportunity this year to do that.</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -3726,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3738,16 +4000,19 @@
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>The seeds we sow in early childhood investment right now, this year, will sustain generations to come.</t>
+          <t>With the Early Childhood Trust Fund, we can establish a positive, dynamic and self-fulfilling cycle of improved outcomes for our children and families.</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3769,22 +4034,25 @@
         <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>We have committed to transforming the lives and opportunities of New Mexico children and families; we believe in the unequivocal data that show the pathway begins at the earliest age; we accept that every unacceptable statistic about New Mexico’s education system stems from a lack of comprehensive opportunity for our earliest learners, so this is the moment to step up.</t>
+          <t>The seeds we sow in early childhood investment right now, this year, will sustain generations to come.</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -3800,32 +4068,35 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
       </c>
       <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>This is the moment to stand and be counted as part of the single most comprehensive effort to transform early childhood outcomes of any state in the country.</t>
+          <t>We have committed to transforming the lives and opportunities of New Mexico children and families; we believe in the unequivocal data that show the pathway begins at the earliest age; we accept that every unacceptable statistic about New Mexico’s education system stems from a lack of comprehensive opportunity for our earliest learners, so this is the moment to step up.</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -3843,26 +4114,29 @@
         <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
       </c>
       <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>As long as we’re talking about leading the nation: New Mexico was the first to guarantee higher education for all.</t>
+          <t>This is the moment to stand and be counted as part of the single most comprehensive effort to transform early childhood outcomes of any state in the country.</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -3874,32 +4148,35 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
       </c>
       <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>We were the first state to provide college tuition for residents.</t>
+          <t>As long as we’re talking about leading the nation: New Mexico was the first to guarantee higher education for all.</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -3917,22 +4194,25 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
       </c>
       <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>The Lottery Scholarship was ahead of its time; now, we as a state have fallen behind.</t>
+          <t>We were the first state to provide college tuition for residents.</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3945,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -3960,16 +4240,19 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>We have back-slid into an environment where college-age students in New Mexico wonder not where they’ll attend college but whether they will at all, where adults who want to go back to school face a financial roadblock to new skills and fulfilling new careers.</t>
+          <t>The Lottery Scholarship was ahead of its time; now, we as a state have fallen behind.</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -3982,31 +4265,34 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>And we know we’re selling these New Mexicans short – maybe not as short as me, but pretty dang short.</t>
+          <t>We have back-slid into an environment where college-age students in New Mexico wonder not where they’ll attend college but whether they will at all, where adults who want to go back to school face a financial roadblock to new skills and fulfilling new careers.</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -4019,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4034,20 +4320,23 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>We know if young adults don’t find opportunity here, they will look elsewhere.</t>
+          <t>And we know we’re selling these New Mexicans short – maybe not as short as me, but pretty dang short.</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -4056,35 +4345,38 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
       </c>
       <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>But if we build it, they will stay.</t>
+          <t>We know if young adults don’t find opportunity here, they will look elsewhere.</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -4096,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4108,20 +4400,23 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>This year, we can round out our world-class cradle-to-career educational philosophy with a comprehensive embrace of universal higher education: The Opportunity Scholarship.</t>
+          <t>But if we build it, they will stay.</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -4139,22 +4434,25 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>It is a prudent, sustainable investment in the bridge we must build between our classrooms and our workforce.</t>
+          <t>This year, we can round out our world-class cradle-to-career educational philosophy with a comprehensive embrace of universal higher education: The Opportunity Scholarship.</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -4173,29 +4471,32 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>We have the power to make tuition-free higher education a reality, benefiting an astounding 55,000 New Mexico students this fall.</t>
+          <t>It is a prudent, sustainable investment in the bridge we must build between our classrooms and our workforce.</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -4213,26 +4514,29 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Students want it; parents want it; let’s give them the opportunity.</t>
+          <t>We have the power to make tuition-free higher education a reality, benefiting an astounding 55,000 New Mexico students this fall.</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -4244,38 +4548,41 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>An opportunity that works for Estevan, studying education at the Santa Fe Community College.</t>
+          <t>Students want it; parents want it; let’s give them the opportunity.</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -4284,29 +4591,32 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
       </c>
       <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>I want Estevan to be a teacher right here in New Mexico.</t>
+          <t>An opportunity that works for Estevan, studying education at the Santa Fe Community College.</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -4330,20 +4640,23 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>An opportunity that works for Yawana, a sophomore nursing student at UNM.</t>
+          <t>I want Estevan to be a teacher right here in New Mexico.</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -4361,26 +4674,29 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>I want Yawana to be a nurse right here in this state, where we need her.</t>
+          <t>An opportunity that works for Yawana, a sophomore nursing student at UNM.</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -4389,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -4398,26 +4714,29 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
       </c>
       <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>An opportunity that works for Michelle, a senior at New Mexico Tech double-majoring in electrical engineering and mathematics.</t>
+          <t>I want Yawana to be a nurse right here in this state, where we need her.</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -4441,20 +4760,23 @@
         <v>0</v>
       </c>
       <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>I want Michelle to put those degrees to work and build her career right here in New Mexico.</t>
+          <t>An opportunity that works for Michelle, a senior at New Mexico Tech double-majoring in electrical engineering and mathematics.</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -4463,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -4478,20 +4800,23 @@
         <v>0</v>
       </c>
       <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>We should all want students like Estevan and Yawana and Michelle – and the many, many talented young adults in the gallery right now and watching at home – to find their passion here, to build their careers here, in New Mexico.</t>
+          <t>I want Michelle to put those degrees to work and build her career right here in New Mexico.</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -4503,32 +4828,35 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>And I want them to know they can do it without debt hanging over them for years.</t>
+          <t>We should all want students like Estevan and Yawana and Michelle – and the many, many talented young adults in the gallery right now and watching at home – to find their passion here, to build their careers here, in New Mexico.</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -4543,29 +4871,32 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>We should all be doing everything we can to make student tuition debt a thing of the past.</t>
+          <t>And I want them to know they can do it without debt hanging over them for years.</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -4574,35 +4905,38 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Otherwise, we’re limiting what our young adults can do and who they can become.</t>
+          <t>We should all be doing everything we can to make student tuition debt a thing of the past.</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -4617,29 +4951,32 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
       </c>
       <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>I would much rather invest in unlocking their unlimited potential.</t>
+          <t>Otherwise, we’re limiting what our young adults can do and who they can become.</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -4654,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -4663,20 +5000,23 @@
         <v>0</v>
       </c>
       <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>I’m confident we will.</t>
+          <t>I would much rather invest in unlocking their unlimited potential.</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -4688,28 +5028,31 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>And confidence breeds confidence.</t>
+          <t>I’m confident we will.</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -4725,28 +5068,31 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
       </c>
       <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Every part of this touches every other.</t>
+          <t>And confidence breeds confidence.</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -4765,29 +5111,32 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
       </c>
       <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>When we move aggressively to increase wages, invest in our public education system and think outside the box about what our state economy and workforce can be, jobs and careers will follow.</t>
+          <t>Every part of this touches every other.</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -4799,32 +5148,35 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>These students will stay and work here.</t>
+          <t>When we move aggressively to increase wages, invest in our public education system and think outside the box about what our state economy and workforce can be, jobs and careers will follow.</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -4839,29 +5191,32 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
         <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>We are transforming New Mexico into a place workers and growing businesses want to be.</t>
+          <t>These students will stay and work here.</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -4873,10 +5228,10 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -4885,20 +5240,23 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>A place with stable, fulfilling employment, with opportunities to grow and raise a family.</t>
+          <t>We are transforming New Mexico into a place workers and growing businesses want to be.</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -4910,28 +5268,31 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
       </c>
       <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>We are rapidly climbing out of the lost decade of job growth, the stagnation and forced austerity of the last administration.</t>
+          <t>A place with stable, fulfilling employment, with opportunities to grow and raise a family.</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -4947,32 +5308,35 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
       </c>
       <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>The minimum wage is on the way up for the first time in more than a decade, benefiting 100,000 New Mexico workers.</t>
+          <t>We are rapidly climbing out of the lost decade of job growth, the stagnation and forced austerity of the last administration.</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -4987,25 +5351,28 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
       </c>
       <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>We set a record for film and television shoots, 94 productions pumping nearly $600 million into our economy – with more productions in rural communities under our new rural production incentive.</t>
+          <t>The minimum wage is on the way up for the first time in more than a decade, benefiting 100,000 New Mexico workers.</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -5027,26 +5394,29 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
       </c>
       <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>My Economic Development Department is making record investments in homegrown businesses all across the state – creating more jobs and creating better-paying jobs.</t>
+          <t>We set a record for film and television shoots, 94 productions pumping nearly $600 million into our economy – with more productions in rural communities under our new rural production incentive.</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -5058,32 +5428,35 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
       </c>
       <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>And I mean all across the state: I’m talking about C4 Farms, a 4th generation ranch in Rio Arriba County, where our state contribution will help them develop a processing plant and butcher shop that will serve hunters who currently take their game to Colorado.</t>
+          <t>My Economic Development Department is making record investments in homegrown businesses all across the state – creating more jobs and creating better-paying jobs.</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -5095,32 +5468,35 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>I’m talking about 420 Valley, a manufacturing start-up in Las Cruces that extracts CBD oil from hemp plants and will expand to almost 60 employees over the next 3 years.</t>
+          <t>And I mean all across the state: I’m talking about C4 Farms, a 4th generation ranch in Rio Arriba County, where our state contribution will help them develop a processing plant and butcher shop that will serve hunters who currently take their game to Colorado.</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -5129,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -5144,16 +5520,19 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>I’m talking about Duane Kinsley, the founder of Sport Systems, an Albuquerque outdoor equipment store.</t>
+          <t>I’m talking about 420 Valley, a manufacturing start-up in Las Cruces that extracts CBD oil from hemp plants and will expand to almost 60 employees over the next 3 years.</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -5181,16 +5560,19 @@
         <v>0</v>
       </c>
       <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Duane has launched Best Deal Retailer, a start-up enterprise that has developed technology to help brick-and-mortar New Mexico retailers keep their local shoppers by beating giant online retailers.</t>
+          <t>I’m talking about Duane Kinsley, the founder of Sport Systems, an Albuquerque outdoor equipment store.</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -5218,16 +5600,19 @@
         <v>0</v>
       </c>
       <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Duane is here today – thank you Duane for believing in and representing the power of local economic development, hiring New Mexicans and helping New Mexico businesses compete.</t>
+          <t>Duane has launched Best Deal Retailer, a start-up enterprise that has developed technology to help brick-and-mortar New Mexico retailers keep their local shoppers by beating giant online retailers.</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -5255,20 +5640,23 @@
         <v>0</v>
       </c>
       <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>As outlined in my budget proposal, we will build on the record Local Economic Development and Job Training Incentive funding we delivered throughout New Mexico in Year One.</t>
+          <t>Duane is here today – thank you Duane for believing in and representing the power of local economic development, hiring New Mexicans and helping New Mexico businesses compete.</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -5283,25 +5671,28 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Thank you for your support for these essential programs: The local jobs we created last year paid 20% better than over the last 8 years.</t>
+          <t>As outlined in my budget proposal, we will build on the record Local Economic Development and Job Training Incentive funding we delivered throughout New Mexico in Year One.</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -5314,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -5329,16 +5720,19 @@
         <v>0</v>
       </c>
       <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Manufacturing jobs, IT jobs, engineering and tourism and outdoor recreation jobs – we’re creating pathways into these careers; we’re getting New Mexicans the skills they need to succeed.</t>
+          <t>Thank you for your support for these essential programs: The local jobs we created last year paid 20% better than over the last 8 years.</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -5354,32 +5748,35 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Because we all want an economy that is stronger than one industry – no matter how strong that industry is today.</t>
+          <t>Manufacturing jobs, IT jobs, engineering and tourism and outdoor recreation jobs – we’re creating pathways into these careers; we’re getting New Mexicans the skills they need to succeed.</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -5394,29 +5791,32 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
       </c>
       <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>We’ve got to create more opportunity in rural communities, on mainstreets all through our state – and so we’ve got to consider every single good idea.</t>
+          <t>Because we all want an economy that is stronger than one industry – no matter how strong that industry is today.</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -5434,26 +5834,29 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
       </c>
       <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>A perfect example is cannabis.</t>
+          <t>We’ve got to create more opportunity in rural communities, on mainstreets all through our state – and so we’ve got to consider every single good idea.</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -5471,22 +5874,25 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
       </c>
       <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>This is the fact: Recreational cannabis can be the next frontier of our economic expansion.</t>
+          <t>A perfect example is cannabis.</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -5499,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -5508,22 +5914,25 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
         <v>0</v>
       </c>
       <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>We can get in on the ground floor or we can try to play catch up – I know which one I prefer.</t>
+          <t>This is the fact: Recreational cannabis can be the next frontier of our economic expansion.</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -5536,38 +5945,41 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
       </c>
       <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>And I know which one New Mexicans prefer: 75 percent of New Mexico supports the legalization of adult-use cannabis, including strong support in rural areas.</t>
+          <t>We can get in on the ground floor or we can try to play catch up – I know which one I prefer.</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -5579,66 +5991,72 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
       </c>
       <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>For years now, the Legislature has heard and debated recreational cannabis proposals; we’ve watched states come before us, we’ve watched them stumble in some areas, thrive in others, and every year we’ve said, “No, not yet, it’s not for us.</t>
+          <t>And I know which one New Mexicans prefer: 75 percent of New Mexico supports the legalization of adult-use cannabis, including strong support in rural areas.</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
       </c>
       <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Well, it’s easy to get to “no.</t>
+          <t>For years now, the Legislature has heard and debated recreational cannabis proposals; we’ve watched states come before us, we’ve watched them stumble in some areas, thrive in others, and every year we’ve said, “No, not yet, it’s not for us.</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -5647,13 +6065,13 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -5662,16 +6080,19 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>It’s harder to stand up and create something good and new.</t>
+          <t>Well, it’s easy to get to “no.</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -5699,20 +6120,23 @@
         <v>0</v>
       </c>
       <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>And we’re ready for that.</t>
+          <t>It’s harder to stand up and create something good and new.</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
@@ -5724,28 +6148,31 @@
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
       </c>
       <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>These 30 days are the final stages, not the starting point.</t>
+          <t>And we’re ready for that.</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -5758,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -5767,32 +6194,35 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
       </c>
       <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>My legalization working group – a team of experts and advocates, experienced stakeholders from every corner of the industry, law enforcement from rural and urban areas alike and more – built upon the conversations the Legislature has had in past years.</t>
+          <t>These 30 days are the final stages, not the starting point.</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -5801,7 +6231,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -5810,20 +6240,23 @@
         <v>0</v>
       </c>
       <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>They visited communities all across the state last year.</t>
+          <t>My legalization working group – a team of experts and advocates, experienced stakeholders from every corner of the industry, law enforcement from rural and urban areas alike and more – built upon the conversations the Legislature has had in past years.</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -5835,10 +6268,10 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -5847,16 +6280,19 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>They solicited candid community input from parents and providers and coaches and police officers; they laid out a vision of a New Mexico where we use every tool in our economic toolbelt, strategically adopting best practices from the states that have come before us, creating a thriving and safe new industry employing thousands of New Mexicans and delivering hundreds of millions in revenue back to cities and counties and the state for public safety and health care.</t>
+          <t>They visited communities all across the state last year.</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -5872,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5884,20 +6320,23 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Three of every four New Mexicans wants to realize the awesome economic potential of this industry, and I agree with the overwhelming majority of our state: I say we ought to give them the chance.</t>
+          <t>They solicited candid community input from parents and providers and coaches and police officers; they laid out a vision of a New Mexico where we use every tool in our economic toolbelt, strategically adopting best practices from the states that have come before us, creating a thriving and safe new industry employing thousands of New Mexicans and delivering hundreds of millions in revenue back to cities and counties and the state for public safety and health care.</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -5915,26 +6354,29 @@
         <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
       </c>
       <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>It’s high time we stopped holding ourselves and our economy back: Let’s get it done this year and give New Mexicans yet another reason, yet another opportunity, to stay here and work and build a fulfilling 21st century career.</t>
+          <t>Three of every four New Mexicans wants to realize the awesome economic potential of this industry, and I agree with the overwhelming majority of our state: I say we ought to give them the chance.</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -5949,29 +6391,32 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Progress is not preordained.</t>
+          <t>It’s high time we stopped holding ourselves and our economy back: Let’s get it done this year and give New Mexicans yet another reason, yet another opportunity, to stay here and work and build a fulfilling 21st century career.</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
         <v>0</v>
@@ -5986,32 +6431,35 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
         <v>0</v>
       </c>
       <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>We have to have the vision to identify productive next steps while keeping an eye on the longer path, the distances farther ahead.</t>
+          <t>Progress is not preordained.</t>
         </is>
       </c>
       <c r="C151" t="n">
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
@@ -6020,69 +6468,75 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>1</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
       </c>
       <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>This past year we stood up to protect New Mexicans from pernicious federal efforts to dismantle health care services.</t>
+          <t>We have to have the vision to identify productive next steps while keeping an eye on the longer path, the distances farther ahead.</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
       </c>
       <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>With your support, we enacted safeguards against attempts to roll back the Affordable Care Act and strip New Mexicans of the health care lifelines they depend on.</t>
+          <t>This past year we stood up to protect New Mexicans from pernicious federal efforts to dismantle health care services.</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -6097,29 +6551,32 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
       </c>
       <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>But unfortunately that’s not enough.</t>
+          <t>With your support, we enacted safeguards against attempts to roll back the Affordable Care Act and strip New Mexicans of the health care lifelines they depend on.</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -6134,29 +6591,32 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
       </c>
       <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>We, as a state, have to keep fighting to ensure health care as affordable, high-quality and accessible as it can possibly be.</t>
+          <t>But unfortunately that’s not enough.</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -6168,32 +6628,35 @@
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>And this year, with your support, we can move aggressively to reduce health care costs – including drug costs – for New Mexico families.</t>
+          <t>We, as a state, have to keep fighting to ensure health care as affordable, high-quality and accessible as it can possibly be.</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -6205,32 +6668,35 @@
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>With your support for Senate Bill 1, the state will pursue the importation of wholesale prescription drugs from Canada, cutting costs for New Mexico families.</t>
+          <t>And this year, with your support, we can move aggressively to reduce health care costs – including drug costs – for New Mexico families.</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -6248,26 +6714,29 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>And we will begin to cap co-pays and out-of-pocket costs for patients with chronic conditions like diabetes, asthma and COPD.</t>
+          <t>With your support for Senate Bill 1, the state will pursue the importation of wholesale prescription drugs from Canada, cutting costs for New Mexico families.</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -6279,32 +6748,35 @@
         <v>0</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>With your support, we can invest in the essential work of rebuilding a robust behavioral health network, providing a lifeline to New Mexico families that have been devastated by drugs, violence, poverty and more.</t>
+          <t>And we will begin to cap co-pays and out-of-pocket costs for patients with chronic conditions like diabetes, asthma and COPD.</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -6316,32 +6788,35 @@
         <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Those are investments in independence, in personal freedom, in people’s capacity to help themselves.</t>
+          <t>With your support, we can invest in the essential work of rebuilding a robust behavioral health network, providing a lifeline to New Mexico families that have been devastated by drugs, violence, poverty and more.</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -6353,32 +6828,35 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
       </c>
       <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>New Mexico seniors deserve that chance, too.</t>
+          <t>Those are investments in independence, in personal freedom, in people’s capacity to help themselves.</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -6396,26 +6874,29 @@
         <v>1</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
       </c>
       <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Every single senior wants to be independent and self-sufficient as long as possible.</t>
+          <t>New Mexico seniors deserve that chance, too.</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -6433,32 +6914,35 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
       </c>
       <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Right now, my mother Sonja is in a primary care clinic, without my brother and me, being treated for an infection that threatens hospitalization.</t>
+          <t>Every single senior wants to be independent and self-sufficient as long as possible.</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -6467,29 +6951,32 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
       </c>
       <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>My mother is a strong and stubborn woman – and she’s going it alone so my brother and I can be here with you today.</t>
+          <t>Right now, my mother Sonja is in a primary care clinic, without my brother and me, being treated for an infection that threatens hospitalization.</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -6507,26 +6994,29 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
       </c>
       <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>I remember when my father was dying — and in spite of my mother’s strong independence, she, in fact, relied heavily on my father.</t>
+          <t>My mother is a strong and stubborn woman – and she’s going it alone so my brother and I can be here with you today.</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -6544,26 +7034,29 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
       </c>
       <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>After his death, my mother and I both knew she really couldn’t live alone.</t>
+          <t>I remember when my father was dying — and in spite of my mother’s strong independence, she, in fact, relied heavily on my father.</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -6572,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -6581,26 +7074,29 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
       </c>
       <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>We began the painful effort of moving her into my home with me.</t>
+          <t>After his death, my mother and I both knew she really couldn’t live alone.</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -6618,26 +7114,29 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
       </c>
       <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>And I remember taking the last box of her personal belongings and loading them into my car.</t>
+          <t>We began the painful effort of moving her into my home with me.</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -6655,26 +7154,29 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
       </c>
       <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>What I had in that small box was the last vestige of my mother’s independence, and the only life she had really ever known.</t>
+          <t>And I remember taking the last box of her personal belongings and loading them into my car.</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -6698,57 +7200,63 @@
         <v>0</v>
       </c>
       <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>I vowed then – and I do again today – to restore for seniors and disabled adults and their caregivers the respect, the services and the dignity that they deserve.</t>
+          <t>What I had in that small box was the last vestige of my mother’s independence, and the only life she had really ever known.</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
       </c>
       <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>The Kiki Saavedra Senior Dignity Fund that I have proposed is designed to do just that – to provide for the dignity and support seniors and caregivers need.</t>
+          <t>I vowed then – and I do again today – to restore for seniors and disabled adults and their caregivers the respect, the services and the dignity that they deserve.</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
         <v>0</v>
@@ -6763,35 +7271,38 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
       </c>
       <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Kiki Saavedra understood the necessity of getting that right.</t>
+          <t>The Kiki Saavedra Senior Dignity Fund that I have proposed is designed to do just that – to provide for the dignity and support seniors and caregivers need.</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -6803,35 +7314,38 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
       </c>
       <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>I remember him telling me, before every one of my appropriation requests for senior citizens would go before his committee, “Michelle, if you really care about funding these services for seniors, do not bring a thousand senior citizens into this hearing room.</t>
+          <t>Kiki Saavedra understood the necessity of getting that right.</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -6840,26 +7354,29 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
       </c>
       <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>We don’t have time.</t>
+          <t>I remember him telling me, before every one of my appropriation requests for senior citizens would go before his committee, “Michelle, if you really care about funding these services for seniors, do not bring a thousand senior citizens into this hearing room.</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -6877,22 +7394,25 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
       </c>
       <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>I’ve got other committees.</t>
+          <t>We don’t have time.</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -6920,16 +7440,19 @@
         <v>0</v>
       </c>
       <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Do not do it.</t>
+          <t>I’ve got other committees.</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -6942,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -6957,16 +7480,19 @@
         <v>0</v>
       </c>
       <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>So, I did it, and he would give me that look – like, “You were my hita, I don’t know what you are to me now.</t>
+          <t>Do not do it.</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -6994,16 +7520,19 @@
         <v>0</v>
       </c>
       <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>But you know what.</t>
+          <t>So, I did it, and he would give me that look – like, “You were my hita, I don’t know what you are to me now.</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -7031,32 +7560,35 @@
         <v>0</v>
       </c>
       <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>He’d be there.</t>
+          <t>But you know what.</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7068,20 +7600,23 @@
         <v>0</v>
       </c>
       <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>He’d stay until every single person was heard.</t>
+          <t>He’d be there.</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -7105,20 +7640,23 @@
         <v>0</v>
       </c>
       <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>He’d walk around the room, he’d ask who drove the farthest, who had the oldest car – he would make the effort to give every single person in that room the time and care and attention they deserved.</t>
+          <t>He’d stay until every single person was heard.</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
         <v>0</v>
@@ -7130,10 +7668,10 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -7142,20 +7680,23 @@
         <v>0</v>
       </c>
       <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>The Kiki Saavedra Senior Dignity Fund is an investment in our capacity to provide that kind of respect.</t>
+          <t>He’d walk around the room, he’d ask who drove the farthest, who had the oldest car – he would make the effort to give every single person in that room the time and care and attention they deserved.</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -7164,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -7173,26 +7714,29 @@
         <v>1</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
       </c>
       <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Kiki Saavedra understood that we are judged not by our personal success but what we do for others.</t>
+          <t>The Kiki Saavedra Senior Dignity Fund is an investment in our capacity to provide that kind of respect.</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
@@ -7201,35 +7745,38 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="n">
         <v>0</v>
       </c>
       <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>In this session we can deliver for New Mexico seniors and make this game-changing fund a reality.</t>
+          <t>Kiki Saavedra understood that we are judged not by our personal success but what we do for others.</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
@@ -7241,32 +7788,35 @@
         <v>0</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
       </c>
       <c r="K184" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>But as we worked last year to improve the health and welfare of New Mexicans, others were working to deprive them of both.</t>
+          <t>In this session we can deliver for New Mexico seniors and make this game-changing fund a reality.</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
@@ -7275,13 +7825,13 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -7290,20 +7840,23 @@
         <v>0</v>
       </c>
       <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>I’m talking about the criminal violence that is far too prevalent in our great state.</t>
+          <t>But as we worked last year to improve the health and welfare of New Mexicans, others were working to deprive them of both.</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
@@ -7318,29 +7871,32 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
         <v>0</v>
       </c>
       <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Let’s all agree that the days of hardened, violent, repeat offenders not doing any real time, getting unwarranted second and third and fourth chances because our system is too broken to hold people accountable, those days must end and they must end now.</t>
+          <t>I’m talking about the criminal violence that is far too prevalent in our great state.</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -7352,32 +7908,35 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="n">
         <v>0</v>
       </c>
       <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>We have to draw a line.</t>
+          <t>Let’s all agree that the days of hardened, violent, repeat offenders not doing any real time, getting unwarranted second and third and fourth chances because our system is too broken to hold people accountable, those days must end and they must end now.</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -7395,29 +7954,32 @@
         <v>1</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="n">
         <v>0</v>
       </c>
       <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>New Mexicans are sick and tired of seeing predators circle in and out of custody, never facing the full force of the law.</t>
+          <t>We have to draw a line.</t>
         </is>
       </c>
       <c r="C189" t="n">
         <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
@@ -7438,20 +8000,23 @@
         <v>0</v>
       </c>
       <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>I am too.</t>
+          <t>New Mexicans are sick and tired of seeing predators circle in and out of custody, never facing the full force of the law.</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -7466,25 +8031,28 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
       </c>
       <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Here’s the fact: Dangerous, repeat offenders have got to be in jail.</t>
+          <t>I am too.</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -7503,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -7512,20 +8080,23 @@
         <v>0</v>
       </c>
       <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>If you are terrorizing our communities again and again, we have nothing to talk about: You must be stopped and held accountable.</t>
+          <t>Here’s the fact: Dangerous, repeat offenders have got to be in jail.</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -7540,29 +8111,32 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
         <v>0</v>
       </c>
       <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>We have a chance in this session to come together as a state and put together the best practices, to be smart and tough on crime.</t>
+          <t>If you are terrorizing our communities again and again, we have nothing to talk about: You must be stopped and held accountable.</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
         <v>0</v>
@@ -7574,32 +8148,35 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
         <v>0</v>
       </c>
       <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Everybody – every policymaker, at every level of government – has to be on board.</t>
+          <t>We have a chance in this session to come together as a state and put together the best practices, to be smart and tough on crime.</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -7611,69 +8188,75 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>This year we launched, as a state, the Fugitive Apprehension Unit; we sent state police officers to help support local police efforts in Albuquerque, in Valencia County, in Alamogordo and down on the border.</t>
+          <t>Everybody – every policymaker, at every level of government – has to be on board.</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
       </c>
       <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>And under my budget proposal we will fund 60 new State Police officers and better pay for new recruits.</t>
+          <t>This year we launched, as a state, the Fugitive Apprehension Unit; we sent state police officers to help support local police efforts in Albuquerque, in Valencia County, in Alamogordo and down on the border.</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -7688,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -7697,20 +8280,23 @@
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>We’ll give them the time and support they need to make meaningful connections with the communities they serve all across New Mexico – and to keep them safe.</t>
+          <t>And under my budget proposal we will fund 60 new State Police officers and better pay for new recruits.</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -7728,26 +8314,29 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
       </c>
       <c r="K197" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>I’m also proposing stiffer penalties for gun- and drug- and human-trafficking to keep the purveyors of those particular kinds of evil off our streets longer.</t>
+          <t>We’ll give them the time and support they need to make meaningful connections with the communities they serve all across New Mexico – and to keep them safe.</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -7762,35 +8351,38 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
       </c>
       <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>One of my staff members had to leave work early one day this fall to pick up her daughter, who was deeply shaken after her school was placed on lockdown following a threat of mass violence.</t>
+          <t>I’m also proposing stiffer penalties for gun- and drug- and human-trafficking to keep the purveyors of those particular kinds of evil off our streets longer.</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -7799,29 +8391,32 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
         <v>0</v>
       </c>
       <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Think of all our children, our friends and neighbors whose lives and livelihoods have been disrupted by lockdowns or evacuations.</t>
+          <t>One of my staff members had to leave work early one day this fall to pick up her daughter, who was deeply shaken after her school was placed on lockdown following a threat of mass violence.</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -7830,35 +8425,38 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="n">
         <v>0</v>
       </c>
       <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>That’s criminal, and this session, we’re going after people who terrorize New Mexicans with threats of mass violence.</t>
+          <t>Think of all our children, our friends and neighbors whose lives and livelihoods have been disrupted by lockdowns or evacuations.</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
         <v>0</v>
@@ -7876,26 +8474,29 @@
         <v>1</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
         <v>0</v>
       </c>
       <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>If we are clear about keeping New Mexico families safe, we have to commit to accepting responsibility and giving law enforcement the tools they need – to give New Mexicans the peace of mind they deserve.</t>
+          <t>That’s criminal, and this session, we’re going after people who terrorize New Mexicans with threats of mass violence.</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -7910,29 +8511,32 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>We have to create public safety, consciously and proactively and persistently, every day.</t>
+          <t>If we are clear about keeping New Mexico families safe, we have to commit to accepting responsibility and giving law enforcement the tools they need – to give New Mexicans the peace of mind they deserve.</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -7944,32 +8548,35 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
       </c>
       <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Together, beginning this session, we will win this fight, and justice will be done in New Mexico.</t>
+          <t>We have to create public safety, consciously and proactively and persistently, every day.</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -7987,26 +8594,29 @@
         <v>1</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
       </c>
       <c r="K204" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>In these next 30 days, I will be who you know me to be.</t>
+          <t>Together, beginning this session, we will win this fight, and justice will be done in New Mexico.</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205" t="n">
         <v>0</v>
@@ -8021,29 +8631,32 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="n">
         <v>0</v>
       </c>
       <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Relentless.</t>
+          <t>In these next 30 days, I will be who you know me to be.</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -8055,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8067,20 +8680,23 @@
         <v>0</v>
       </c>
       <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Competitive.</t>
+          <t>Relentless.</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -8098,26 +8714,29 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
         <v>0</v>
       </c>
       <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Caffeinated.</t>
+          <t>Competitive.</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -8132,25 +8751,28 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="n">
         <v>0</v>
       </c>
       <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>I will be tireless on behalf of the New Mexicans who have not yet felt the effect of our changing fortunes, our push toward steady and sustainable progress.</t>
+          <t>Caffeinated.</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -8169,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -8178,16 +8800,19 @@
         <v>0</v>
       </c>
       <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>New Mexicans like Tiffanie Collins, a single mother in Grants.</t>
+          <t>I will be tireless on behalf of the New Mexicans who have not yet felt the effect of our changing fortunes, our push toward steady and sustainable progress.</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -8197,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -8206,38 +8831,41 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="n">
         <v>0</v>
       </c>
       <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Her daughter turns 12 next month.</t>
+          <t>New Mexicans like Tiffanie Collins, a single mother in Grants.</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211" t="n">
         <v>0</v>
@@ -8252,16 +8880,19 @@
         <v>0</v>
       </c>
       <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tiffanie works two jobs to provide for her daughter – and it’s just barely enough.</t>
+          <t>Her daughter turns 12 next month.</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -8289,20 +8920,23 @@
         <v>0</v>
       </c>
       <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>She feels the strain every day – working extra time, relying on family to help care for her daughter.</t>
+          <t>Tiffanie works two jobs to provide for her daughter – and it’s just barely enough.</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
@@ -8320,26 +8954,29 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
       </c>
       <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tiffanie went to UNM to obtain her bachelor’s and dropped out after a few semesters because she couldn’t afford tuition.</t>
+          <t>She feels the strain every day – working extra time, relying on family to help care for her daughter.</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
@@ -8357,26 +8994,29 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="n">
         <v>0</v>
       </c>
       <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>What she wants is opportunity to get ahead where she lives, in Grants, a chance to thrive and make a better life right there, a chance to get her daughter into high-quality after-school programming and get gainful, fulfilling employment so she doesn’t have to worry about the next bill, and the next bill, and the unexpected bill, maybe a medical expense, that puts everything over the edge.</t>
+          <t>Tiffanie went to UNM to obtain her bachelor’s and dropped out after a few semesters because she couldn’t afford tuition.</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
@@ -8385,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8394,26 +9034,29 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
       </c>
       <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Tiffanie made the sacrifice to take time out of her schedule to be here today, and I want to recognize her as the kind of New Mexican who is doing absolutely everything right – working hard, being a good mom, getting into a program where she’s learning coding skills, trying to get the kind of education and training that will help her provide for her family.</t>
+          <t>What she wants is opportunity to get ahead where she lives, in Grants, a chance to thrive and make a better life right there, a chance to get her daughter into high-quality after-school programming and get gainful, fulfilling employment so she doesn’t have to worry about the next bill, and the next bill, and the unexpected bill, maybe a medical expense, that puts everything over the edge.</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
@@ -8425,32 +9068,35 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216" t="n">
         <v>1</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
       </c>
       <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>We have got to make sure Tiffanie’s efforts are supported by our efforts.</t>
+          <t>Tiffanie made the sacrifice to take time out of her schedule to be here today, and I want to recognize her as the kind of New Mexican who is doing absolutely everything right – working hard, being a good mom, getting into a program where she’s learning coding skills, trying to get the kind of education and training that will help her provide for her family.</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
@@ -8462,69 +9108,75 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>We’ve got to make school more affordable; we’ve got to provide jobs right where she is, not 100 miles or a couple states away; we’ve got to invest in our educators and improve our schools so she can sleep at night knowing her daughter has the best possible chance to succeed.</t>
+          <t>We have got to make sure Tiffanie’s efforts are supported by our efforts.</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" t="n">
         <v>0</v>
       </c>
       <c r="F218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Tiffanie’s here today because she believes in us – and also to tell us to keep going.</t>
+          <t>We’ve got to make school more affordable; we’ve got to provide jobs right where she is, not 100 miles or a couple states away; we’ve got to invest in our educators and improve our schools so she can sleep at night knowing her daughter has the best possible chance to succeed.</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -8539,29 +9191,32 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="n">
         <v>0</v>
       </c>
       <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Because we have to do better, all of us, so New Mexicans like Tiffanie are never left behind.</t>
+          <t>Tiffanie’s here today because she believes in us – and also to tell us to keep going.</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
@@ -8576,29 +9231,32 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>I urge you to join me in sustaining the investments we have made in the future that New Mexico families, students and workers deserve.</t>
+          <t>Because we have to do better, all of us, so New Mexicans like Tiffanie are never left behind.</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
@@ -8610,32 +9268,35 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>I invite you to join me in bringing into reality the bright vision of the best possible New Mexico of 2020, 2030, 2040, a future where our youngest get the best possible head start, where students and educators have every reason to stay here and build their lives, where small businesses can thrive with a strong and dynamic workforce at the ready, where our economy includes everyone and every good idea, where New Mexicans live and thrive in safety.</t>
+          <t>I urge you to join me in sustaining the investments we have made in the future that New Mexico families, students and workers deserve.</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -8647,32 +9308,35 @@
         <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222" t="n">
         <v>1</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Together, we will keep investing for tomorrow and delivering today.</t>
+          <t>I invite you to join me in bringing into reality the bright vision of the best possible New Mexico of 2020, 2030, 2040, a future where our youngest get the best possible head start, where students and educators have every reason to stay here and build their lives, where small businesses can thrive with a strong and dynamic workforce at the ready, where our economy includes everyone and every good idea, where New Mexicans live and thrive in safety.</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -8684,32 +9348,35 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223" t="n">
         <v>1</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="n">
         <v>0</v>
       </c>
       <c r="K223" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>We will keep going.</t>
+          <t>Together, we will keep investing for tomorrow and delivering today.</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -8727,26 +9394,29 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="n">
         <v>0</v>
       </c>
       <c r="K224" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Forward, every day, together.</t>
+          <t>We will keep going.</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -8758,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8770,20 +9440,23 @@
         <v>0</v>
       </c>
       <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Thank you, and let’s get to work.</t>
+          <t>Forward, every day, together.</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
@@ -8798,25 +9471,32 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
       </c>
       <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B227" t="inlineStr"/>
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Thank you, and let’s get to work.</t>
+        </is>
+      </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -8831,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -8840,12 +9520,15 @@
         <v>0</v>
       </c>
       <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
@@ -8875,10 +9558,13 @@
       <c r="K228" t="n">
         <v>0</v>
       </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" t="inlineStr"/>
       <c r="C229" t="n">
@@ -8908,10 +9594,13 @@
       <c r="K229" t="n">
         <v>0</v>
       </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="n">
@@ -8941,10 +9630,13 @@
       <c r="K230" t="n">
         <v>0</v>
       </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="n">
@@ -8974,10 +9666,13 @@
       <c r="K231" t="n">
         <v>0</v>
       </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="n">
@@ -9007,10 +9702,13 @@
       <c r="K232" t="n">
         <v>0</v>
       </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="n">
@@ -9040,10 +9738,13 @@
       <c r="K233" t="n">
         <v>0</v>
       </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
@@ -9073,10 +9774,13 @@
       <c r="K234" t="n">
         <v>0</v>
       </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="n">
@@ -9106,10 +9810,13 @@
       <c r="K235" t="n">
         <v>0</v>
       </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="n">
@@ -9139,10 +9846,13 @@
       <c r="K236" t="n">
         <v>0</v>
       </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="n">
@@ -9172,10 +9882,13 @@
       <c r="K237" t="n">
         <v>0</v>
       </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="n">
@@ -9205,10 +9918,13 @@
       <c r="K238" t="n">
         <v>0</v>
       </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
@@ -9238,10 +9954,13 @@
       <c r="K239" t="n">
         <v>0</v>
       </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="n">
@@ -9271,10 +9990,13 @@
       <c r="K240" t="n">
         <v>0</v>
       </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
@@ -9304,10 +10026,13 @@
       <c r="K241" t="n">
         <v>0</v>
       </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
@@ -9337,10 +10062,13 @@
       <c r="K242" t="n">
         <v>0</v>
       </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="n">
@@ -9370,10 +10098,13 @@
       <c r="K243" t="n">
         <v>0</v>
       </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
@@ -9403,10 +10134,13 @@
       <c r="K244" t="n">
         <v>0</v>
       </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="n">
@@ -9436,10 +10170,13 @@
       <c r="K245" t="n">
         <v>0</v>
       </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="n">
@@ -9469,10 +10206,13 @@
       <c r="K246" t="n">
         <v>0</v>
       </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="n">
@@ -9502,10 +10242,13 @@
       <c r="K247" t="n">
         <v>0</v>
       </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="n">
@@ -9535,10 +10278,13 @@
       <c r="K248" t="n">
         <v>0</v>
       </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
@@ -9568,10 +10314,13 @@
       <c r="K249" t="n">
         <v>0</v>
       </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" t="inlineStr"/>
       <c r="C250" t="n">
@@ -9601,10 +10350,13 @@
       <c r="K250" t="n">
         <v>0</v>
       </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" t="inlineStr"/>
       <c r="C251" t="n">
@@ -9634,10 +10386,13 @@
       <c r="K251" t="n">
         <v>0</v>
       </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" t="inlineStr"/>
       <c r="C252" t="n">
@@ -9667,10 +10422,13 @@
       <c r="K252" t="n">
         <v>0</v>
       </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" t="inlineStr"/>
       <c r="C253" t="n">
@@ -9700,10 +10458,13 @@
       <c r="K253" t="n">
         <v>0</v>
       </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" t="inlineStr"/>
       <c r="C254" t="n">
@@ -9733,10 +10494,13 @@
       <c r="K254" t="n">
         <v>0</v>
       </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" t="inlineStr"/>
       <c r="C255" t="n">
@@ -9766,10 +10530,13 @@
       <c r="K255" t="n">
         <v>0</v>
       </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" t="inlineStr"/>
       <c r="C256" t="n">
@@ -9799,10 +10566,13 @@
       <c r="K256" t="n">
         <v>0</v>
       </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" t="inlineStr"/>
       <c r="C257" t="n">
@@ -9832,10 +10602,13 @@
       <c r="K257" t="n">
         <v>0</v>
       </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" t="inlineStr"/>
       <c r="C258" t="n">
@@ -9865,10 +10638,13 @@
       <c r="K258" t="n">
         <v>0</v>
       </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" t="inlineStr"/>
       <c r="C259" t="n">
@@ -9898,10 +10674,13 @@
       <c r="K259" t="n">
         <v>0</v>
       </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" t="inlineStr"/>
       <c r="C260" t="n">
@@ -9931,10 +10710,13 @@
       <c r="K260" t="n">
         <v>0</v>
       </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" t="inlineStr"/>
       <c r="C261" t="n">
@@ -9964,10 +10746,13 @@
       <c r="K261" t="n">
         <v>0</v>
       </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" t="inlineStr"/>
       <c r="C262" t="n">
@@ -9997,10 +10782,13 @@
       <c r="K262" t="n">
         <v>0</v>
       </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" t="inlineStr"/>
       <c r="C263" t="n">
@@ -10030,10 +10818,13 @@
       <c r="K263" t="n">
         <v>0</v>
       </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="n">
@@ -10063,10 +10854,13 @@
       <c r="K264" t="n">
         <v>0</v>
       </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" t="inlineStr"/>
       <c r="C265" t="n">
@@ -10096,10 +10890,13 @@
       <c r="K265" t="n">
         <v>0</v>
       </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" t="inlineStr"/>
       <c r="C266" t="n">
@@ -10129,10 +10926,13 @@
       <c r="K266" t="n">
         <v>0</v>
       </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="n">
@@ -10162,10 +10962,13 @@
       <c r="K267" t="n">
         <v>0</v>
       </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" t="inlineStr"/>
       <c r="C268" t="n">
@@ -10195,10 +10998,13 @@
       <c r="K268" t="n">
         <v>0</v>
       </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" t="inlineStr"/>
       <c r="C269" t="n">
@@ -10228,10 +11034,13 @@
       <c r="K269" t="n">
         <v>0</v>
       </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" t="inlineStr"/>
       <c r="C270" t="n">
@@ -10261,10 +11070,13 @@
       <c r="K270" t="n">
         <v>0</v>
       </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="n">
@@ -10294,10 +11106,13 @@
       <c r="K271" t="n">
         <v>0</v>
       </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" t="inlineStr"/>
       <c r="C272" t="n">
@@ -10327,10 +11142,13 @@
       <c r="K272" t="n">
         <v>0</v>
       </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" t="inlineStr"/>
       <c r="C273" t="n">
@@ -10360,10 +11178,13 @@
       <c r="K273" t="n">
         <v>0</v>
       </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" t="inlineStr"/>
       <c r="C274" t="n">
@@ -10393,10 +11214,13 @@
       <c r="K274" t="n">
         <v>0</v>
       </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" t="inlineStr"/>
       <c r="C275" t="n">
@@ -10426,10 +11250,13 @@
       <c r="K275" t="n">
         <v>0</v>
       </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" t="inlineStr"/>
       <c r="C276" t="n">
@@ -10459,10 +11286,13 @@
       <c r="K276" t="n">
         <v>0</v>
       </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" t="inlineStr"/>
       <c r="C277" t="n">
@@ -10492,10 +11322,13 @@
       <c r="K277" t="n">
         <v>0</v>
       </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" t="inlineStr"/>
       <c r="C278" t="n">
@@ -10525,10 +11358,13 @@
       <c r="K278" t="n">
         <v>0</v>
       </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" t="inlineStr"/>
       <c r="C279" t="n">
@@ -10558,10 +11394,13 @@
       <c r="K279" t="n">
         <v>0</v>
       </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" t="inlineStr"/>
       <c r="C280" t="n">
@@ -10591,10 +11430,13 @@
       <c r="K280" t="n">
         <v>0</v>
       </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" t="inlineStr"/>
       <c r="C281" t="n">
@@ -10624,10 +11466,13 @@
       <c r="K281" t="n">
         <v>0</v>
       </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" t="inlineStr"/>
       <c r="C282" t="n">
@@ -10657,10 +11502,13 @@
       <c r="K282" t="n">
         <v>0</v>
       </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" t="inlineStr"/>
       <c r="C283" t="n">
@@ -10690,10 +11538,13 @@
       <c r="K283" t="n">
         <v>0</v>
       </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" t="inlineStr"/>
       <c r="C284" t="n">
@@ -10723,10 +11574,13 @@
       <c r="K284" t="n">
         <v>0</v>
       </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" t="inlineStr"/>
       <c r="C285" t="n">
@@ -10756,10 +11610,13 @@
       <c r="K285" t="n">
         <v>0</v>
       </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" t="inlineStr"/>
       <c r="C286" t="n">
@@ -10789,10 +11646,13 @@
       <c r="K286" t="n">
         <v>0</v>
       </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" t="inlineStr"/>
       <c r="C287" t="n">
@@ -10822,10 +11682,13 @@
       <c r="K287" t="n">
         <v>0</v>
       </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" t="inlineStr"/>
       <c r="C288" t="n">
@@ -10855,10 +11718,13 @@
       <c r="K288" t="n">
         <v>0</v>
       </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" t="inlineStr"/>
       <c r="C289" t="n">
@@ -10888,10 +11754,13 @@
       <c r="K289" t="n">
         <v>0</v>
       </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" t="inlineStr"/>
       <c r="C290" t="n">
@@ -10921,10 +11790,13 @@
       <c r="K290" t="n">
         <v>0</v>
       </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" t="inlineStr"/>
       <c r="C291" t="n">
@@ -10954,10 +11826,13 @@
       <c r="K291" t="n">
         <v>0</v>
       </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" t="inlineStr"/>
       <c r="C292" t="n">
@@ -10987,10 +11862,13 @@
       <c r="K292" t="n">
         <v>0</v>
       </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" t="inlineStr"/>
       <c r="C293" t="n">
@@ -11020,10 +11898,13 @@
       <c r="K293" t="n">
         <v>0</v>
       </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" t="inlineStr"/>
       <c r="C294" t="n">
@@ -11053,10 +11934,13 @@
       <c r="K294" t="n">
         <v>0</v>
       </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" t="inlineStr"/>
       <c r="C295" t="n">
@@ -11086,10 +11970,13 @@
       <c r="K295" t="n">
         <v>0</v>
       </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" t="inlineStr"/>
       <c r="C296" t="n">
@@ -11119,10 +12006,13 @@
       <c r="K296" t="n">
         <v>0</v>
       </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" t="inlineStr"/>
       <c r="C297" t="n">
@@ -11152,10 +12042,13 @@
       <c r="K297" t="n">
         <v>0</v>
       </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="n">
@@ -11183,6 +12076,45 @@
         <v>0</v>
       </c>
       <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="n">
+        <v>0</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test_speeches/predictions/Coding_Differneces_4_AI.xlsx
+++ b/test_speeches/predictions/Coding_Differneces_4_AI.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Similie</t>
+          <t>Metaphor/Simile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stories/Anecdotes</t>
+          <t>Stories / anecdotes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -466,27 +466,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lists</t>
+          <t xml:space="preserve">Lists / Repetition </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Repetition</t>
+          <t>Moral conviction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Moral_conviction</t>
+          <t>Sentiment of the collective</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment_of_the_collective</t>
+          <t>Ambitious goals / Setting high expectations</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Setting_high_expectations</t>
+          <t>Confidence in goals</t>
         </is>
       </c>
     </row>
